--- a/рис/лабы/8 корректность тестирования структуры.xlsx
+++ b/рис/лабы/8 корректность тестирования структуры.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\221b\Desktop\homework2\рис\лабы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\homework2\рис\лабы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160AF868-FC3F-4BB6-9741-ECD5E2BE3A1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EAB620-1C74-4116-BD50-CF5EC22FE54F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -263,6 +263,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -594,16 +597,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C27:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>0</v>
       </c>
@@ -614,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E28">
         <v>2</v>
       </c>
@@ -622,7 +625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E29">
         <v>3</v>
       </c>
@@ -630,7 +633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E30">
         <v>4</v>
       </c>
@@ -638,7 +641,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E31">
         <v>5</v>
       </c>
@@ -646,7 +649,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35">
         <v>1</v>
       </c>
@@ -672,7 +675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>6</v>
       </c>
@@ -702,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D37">
         <v>2</v>
       </c>
@@ -729,7 +732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D38">
         <v>3</v>
       </c>
@@ -756,7 +759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D39">
         <v>4</v>
       </c>
@@ -783,7 +786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D40">
         <v>5</v>
       </c>
@@ -811,7 +814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
@@ -819,13 +822,13 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>13</v>
       </c>
@@ -846,7 +849,7 @@
       </c>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E48" s="4">
         <v>0.34</v>
       </c>
@@ -864,7 +867,7 @@
       </c>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.3">
       <c r="E49" s="4">
         <v>0.34</v>
       </c>
@@ -882,7 +885,7 @@
       </c>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.3">
       <c r="E50" s="4">
         <v>0.74</v>
       </c>
@@ -900,7 +903,7 @@
       </c>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E51" s="7">
         <v>0.97</v>
       </c>
@@ -918,7 +921,7 @@
       </c>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:17" x14ac:dyDescent="0.3">
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
@@ -926,12 +929,12 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>15</v>
       </c>
@@ -940,7 +943,7 @@
         <v>4.72972776E-2</v>
       </c>
     </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>16</v>
       </c>
@@ -949,7 +952,7 @@
         <v>3.7377024000000009E-3</v>
       </c>
     </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>17</v>
       </c>
@@ -958,7 +961,7 @@
         <v>2.7431308800000002E-2</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>18</v>
       </c>
@@ -967,7 +970,7 @@
         <v>3.4027929599999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>19</v>
       </c>
@@ -976,8 +979,8 @@
         <v>6.4438271999999993E-3</v>
       </c>
     </row>
-    <row r="62" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -998,23 +1001,28 @@
       </c>
       <c r="J63" s="5"/>
       <c r="L63" s="1">
-        <v>0.7654765</v>
+        <f>1-E63</f>
+        <v>0.76547600000000005</v>
       </c>
       <c r="M63" s="2">
-        <v>0.65365399999999996</v>
+        <f t="shared" ref="M63:P63" si="0">1-F63</f>
+        <v>0.65365359999999995</v>
       </c>
       <c r="N63" s="2">
+        <f t="shared" si="0"/>
         <v>0.65465459999999998</v>
       </c>
       <c r="O63" s="2">
+        <f t="shared" si="0"/>
         <v>0.65465499999999999</v>
       </c>
       <c r="P63" s="3">
-        <v>0.76565700000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.76565660000000002</v>
       </c>
       <c r="Q63" s="5"/>
     </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:17" x14ac:dyDescent="0.3">
       <c r="E64" s="4">
         <v>0.23463500000000001</v>
       </c>
@@ -1032,23 +1040,28 @@
       </c>
       <c r="J64" s="5"/>
       <c r="L64" s="4">
-        <v>0.76536539999999997</v>
+        <f t="shared" ref="L64:L67" si="1">1-E64</f>
+        <v>0.76536499999999996</v>
       </c>
       <c r="M64" s="5">
-        <v>0.76565399999999995</v>
-      </c>
-      <c r="N64" s="6">
+        <f t="shared" ref="M64:M67" si="2">1-F64</f>
+        <v>0.76565360000000005</v>
+      </c>
+      <c r="N64" s="5">
+        <f t="shared" ref="N64:N67" si="3">1-G64</f>
         <v>0.54564550000000001</v>
       </c>
-      <c r="O64" s="6">
-        <v>0.65465459999999998</v>
-      </c>
-      <c r="P64" s="8">
-        <v>0.47657699999999997</v>
+      <c r="O64" s="5">
+        <f t="shared" ref="O64:O67" si="4">1-H64</f>
+        <v>0.65465499999999999</v>
+      </c>
+      <c r="P64" s="11">
+        <f t="shared" ref="P64:P67" si="5">1-I64</f>
+        <v>0.47657660000000002</v>
       </c>
       <c r="Q64" s="5"/>
     </row>
-    <row r="65" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:17" x14ac:dyDescent="0.3">
       <c r="E65" s="4">
         <v>0.23463500000000001</v>
       </c>
@@ -1066,23 +1079,28 @@
       </c>
       <c r="J65" s="5"/>
       <c r="L65" s="4">
-        <v>0.76536539999999997</v>
-      </c>
-      <c r="M65" s="6">
-        <v>0.75636499999999995</v>
-      </c>
-      <c r="N65" s="6">
+        <f t="shared" si="1"/>
+        <v>0.76536499999999996</v>
+      </c>
+      <c r="M65" s="5">
+        <f t="shared" si="2"/>
+        <v>0.75636539999999997</v>
+      </c>
+      <c r="N65" s="5">
+        <f t="shared" si="3"/>
         <v>0.56454599999999999</v>
       </c>
-      <c r="O65" s="6">
-        <v>0.26544600000000002</v>
-      </c>
-      <c r="P65" s="8">
-        <v>0.35436600000000001</v>
+      <c r="O65" s="5">
+        <f t="shared" si="4"/>
+        <v>0.26544599999999996</v>
+      </c>
+      <c r="P65" s="11">
+        <f t="shared" si="5"/>
+        <v>0.35436570000000001</v>
       </c>
       <c r="Q65" s="5"/>
     </row>
-    <row r="66" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:17" x14ac:dyDescent="0.3">
       <c r="E66" s="4">
         <v>0.23464599999999999</v>
       </c>
@@ -1100,23 +1118,28 @@
       </c>
       <c r="J66" s="5"/>
       <c r="L66" s="4">
+        <f t="shared" si="1"/>
         <v>0.76535399999999998</v>
       </c>
-      <c r="M66" s="6">
-        <v>0.54654700000000001</v>
-      </c>
-      <c r="N66" s="6">
-        <v>0.65465459999999998</v>
-      </c>
-      <c r="O66" s="6">
+      <c r="M66" s="5">
+        <f t="shared" si="2"/>
+        <v>0.54654650000000005</v>
+      </c>
+      <c r="N66" s="5">
+        <f t="shared" si="3"/>
+        <v>0.65465449999999992</v>
+      </c>
+      <c r="O66" s="5">
+        <f t="shared" si="4"/>
         <v>5.4364999999999997E-2</v>
       </c>
-      <c r="P66" s="8">
-        <v>0.67543699999999995</v>
+      <c r="P66" s="11">
+        <f t="shared" si="5"/>
+        <v>0.6754365</v>
       </c>
       <c r="Q66" s="5"/>
     </row>
-    <row r="67" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E67" s="7">
         <v>0.23463500000000001</v>
       </c>
@@ -1134,23 +1157,28 @@
       </c>
       <c r="J67" s="5"/>
       <c r="L67" s="7">
-        <v>0.76536539999999997</v>
-      </c>
-      <c r="M67" s="9">
-        <v>0.54654700000000001</v>
-      </c>
-      <c r="N67" s="9">
+        <f t="shared" si="1"/>
+        <v>0.76536499999999996</v>
+      </c>
+      <c r="M67" s="12">
+        <f t="shared" si="2"/>
+        <v>0.54654650000000005</v>
+      </c>
+      <c r="N67" s="12">
+        <f t="shared" si="3"/>
         <v>0.6545455</v>
       </c>
-      <c r="O67" s="9">
-        <v>0.76565660000000002</v>
-      </c>
-      <c r="P67" s="10">
+      <c r="O67" s="12">
+        <f t="shared" si="4"/>
+        <v>0.76565700000000003</v>
+      </c>
+      <c r="P67" s="13">
+        <f t="shared" si="5"/>
         <v>0.65366000000000002</v>
       </c>
       <c r="Q67" s="5"/>
     </row>
-    <row r="68" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:17" x14ac:dyDescent="0.3">
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -1164,122 +1192,122 @@
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
     </row>
-    <row r="70" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>22</v>
       </c>
       <c r="E72">
         <f>PRODUCT(L63:L67)</f>
-        <v>0.26266408494303189</v>
-      </c>
-    </row>
-    <row r="73" spans="3:17" x14ac:dyDescent="0.25">
+        <v>0.26266350154912294</v>
+      </c>
+    </row>
+    <row r="73" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>23</v>
       </c>
       <c r="E73">
         <f>PRODUCT(M63:M67)</f>
-        <v>0.11307508753627525</v>
-      </c>
-    </row>
-    <row r="74" spans="3:17" x14ac:dyDescent="0.25">
+        <v>0.11307481217631023</v>
+      </c>
+    </row>
+    <row r="74" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>24</v>
       </c>
       <c r="E74">
         <f>PRODUCT(N63:N67)</f>
-        <v>8.6412028781125652E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="3:17" x14ac:dyDescent="0.25">
+        <v>8.6412015581488949E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>25</v>
       </c>
       <c r="E75">
         <f>PRODUCT(O63:O67)</f>
-        <v>4.7353743923909866E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="3:17" x14ac:dyDescent="0.25">
+        <v>4.7353797596393493E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
         <v>26</v>
       </c>
       <c r="E76">
         <f>PRODUCT(P63:P67)</f>
-        <v>5.7089486912220641E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="3:17" x14ac:dyDescent="0.25">
+        <v>5.7089318578931375E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
         <v>28</v>
       </c>
       <c r="E80">
         <f>E55*E72</f>
-        <v>1.242329614110056E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+        <v>1.2423268548156898E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>29</v>
       </c>
       <c r="E81">
         <f>E56*E73</f>
-        <v>4.2264102606454621E-4</v>
-      </c>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+        <v>4.2263999685094407E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>30</v>
       </c>
       <c r="E82">
         <f>E57*E74</f>
-        <v>2.3703950455295454E-3</v>
-      </c>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+        <v>2.370394683446235E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
         <v>31</v>
       </c>
       <c r="E83">
         <f>E58*E75</f>
-        <v>1.6113498645392327E-4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+        <v>1.611351690902727E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>32</v>
       </c>
       <c r="E84">
-        <f t="shared" ref="E81:E85" si="0">E59*E76</f>
-        <v>3.6787478859901136E-4</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E84" si="6">E59*E76</f>
+        <v>3.678737038883833E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>33</v>
       </c>
       <c r="D87">
         <f>SUM(E80:E84)</f>
-        <v>1.5745341987747588E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+        <v>1.5745312101432735E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>34</v>
       </c>
       <c r="D89">
         <f>1-D87</f>
-        <v>0.98425465801225243</v>
+        <v>0.98425468789856729</v>
       </c>
     </row>
   </sheetData>
